--- a/data/trans_camb/P1802_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1802_2016_2023-Habitat-trans_camb.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.113850883170581</v>
+        <v>1.113850883170578</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.5379831123594275</v>
+        <v>-0.5379831123594248</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3361146367384077</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.989407137534019</v>
+        <v>-2.351511765865528</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.393826704620032</v>
+        <v>-4.121227960626205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.244165508379997</v>
+        <v>-2.221106681728892</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.523123774631411</v>
+        <v>4.624237427747864</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.451729014480792</v>
+        <v>3.428767641459783</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.971805146950529</v>
+        <v>3.038060312464868</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.08813890916603938</v>
+        <v>0.08813890916603917</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.03110229406731809</v>
+        <v>-0.03110229406731793</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.02246163734038086</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2019605122417608</v>
+        <v>-0.1645594923614955</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2307463194983783</v>
+        <v>-0.2151928693107985</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1368967534820636</v>
+        <v>-0.137313437364342</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4162071988444745</v>
+        <v>0.4342420945641648</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2276994138869711</v>
+        <v>0.2365953295496373</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2252892829779057</v>
+        <v>0.22452558591633</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>-3.398698315548882</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-5.796430976960335</v>
+        <v>-5.796430976960337</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-4.609023772094514</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.575833161212238</v>
+        <v>-6.294359970418995</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.100365099568142</v>
+        <v>-8.997817444783243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.914007069054811</v>
+        <v>-6.84314596983865</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1116690203981247</v>
+        <v>0.0873001502897843</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.880954474042011</v>
+        <v>-2.838637793816333</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.347996135203096</v>
+        <v>-2.331289556699229</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>-0.2102401143512936</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2815056128865532</v>
+        <v>-0.2815056128865533</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2504870521321454</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3748213218378185</v>
+        <v>-0.3629084618467254</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.396842684822366</v>
+        <v>-0.39545279109037</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.348573268076447</v>
+        <v>-0.3481163351913171</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.006620447691591981</v>
+        <v>-0.0007866831516854982</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1501640433941162</v>
+        <v>-0.1505009248511688</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1348753530571442</v>
+        <v>-0.1383402098442628</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>0.9271316513124739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2444810208620668</v>
+        <v>0.2444810208620724</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.472123344422156</v>
+        <v>-3.887687174661635</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.664370364941996</v>
+        <v>-2.473888745676977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.257610992545413</v>
+        <v>-2.523892907657846</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.976171530267737</v>
+        <v>3.153009697041825</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.737604803591224</v>
+        <v>4.922859903249166</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.228799079697921</v>
+        <v>2.921978109715604</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>0.04864901963400636</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.01479266927164763</v>
+        <v>0.01479266927164797</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2779122023993651</v>
+        <v>-0.241743546560209</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1263971277937764</v>
+        <v>-0.1171200474412864</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1272684859623218</v>
+        <v>-0.1380212234504891</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2461949227335092</v>
+        <v>0.2717676279457246</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2845378677179943</v>
+        <v>0.2924905607127344</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2177394195377005</v>
+        <v>0.1868663108250665</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.360734192326054</v>
+        <v>2.574454434805117</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.409544872615822</v>
+        <v>1.448242694474103</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.743770620403199</v>
+        <v>2.825280665808503</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.634342482764609</v>
+        <v>9.926296639169706</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.957446301555976</v>
+        <v>7.976822652029433</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.589453666486191</v>
+        <v>7.612896736012971</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1532271749406757</v>
+        <v>0.1619728569601003</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07198410464426509</v>
+        <v>0.07064081860433413</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1569170986603636</v>
+        <v>0.1613344269021822</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7687891506832505</v>
+        <v>0.7986440125638996</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4975679369861039</v>
+        <v>0.5010311587167315</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.52025826779675</v>
+        <v>0.5135135688330356</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.7585263113171703</v>
+        <v>0.7585263113171675</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-0.1315753454410151</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.112768685596001</v>
+        <v>-0.922760121898244</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.850768553271403</v>
+        <v>-1.986950078600362</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8622283012892773</v>
+        <v>-0.8209237441560768</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.340887410366867</v>
+        <v>2.516185953461763</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.672971201187404</v>
+        <v>1.566874063322002</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.503131314155484</v>
+        <v>1.618527845046131</v>
       </c>
     </row>
     <row r="31">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.05280292990251712</v>
+        <v>0.05280292990251692</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.006968495156830734</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.07336041337925076</v>
+        <v>-0.06362302709752476</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09357393304643122</v>
+        <v>-0.1010865121643726</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04992034685823497</v>
+        <v>-0.04779260172972513</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1753645486627207</v>
+        <v>0.182041415937175</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.09329819748185082</v>
+        <v>0.08779717761150303</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.09399019980392755</v>
+        <v>0.1005003965506433</v>
       </c>
     </row>
     <row r="34">
